--- a/biology/Médecine/Centre_d'épidémiologie_sur_les_causes_médicales_de_décès/Centre_d'épidémiologie_sur_les_causes_médicales_de_décès.xlsx
+++ b/biology/Médecine/Centre_d'épidémiologie_sur_les_causes_médicales_de_décès/Centre_d'épidémiologie_sur_les_causes_médicales_de_décès.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Centre_d%27%C3%A9pid%C3%A9miologie_sur_les_causes_m%C3%A9dicales_de_d%C3%A9c%C3%A8s</t>
+          <t>Centre_d'épidémiologie_sur_les_causes_médicales_de_décès</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le Centre d'épidémiologie sur les causes médicales de décès (CépiDc) est un service de l'Institut national de la santé et de la recherche médicale (INSERM) chargé de la production de la statistique sur les causes médicales de décès en France, donnée essentielle pour le pilotage des politiques de santé publique tant au niveau national qu'au niveau international.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Centre_d%27%C3%A9pid%C3%A9miologie_sur_les_causes_m%C3%A9dicales_de_d%C3%A9c%C3%A8s</t>
+          <t>Centre_d'épidémiologie_sur_les_causes_médicales_de_décès</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,14 +525,15 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Contexte
-Jean-Noël Biraben estime que « c'est vraisemblablement à l'occasion de la grande peste noire de 1348-1350 que, pour la première fois en Europe occidentale, on eut l'idée de dénombrer, dans certaines villes, les décès dus à une cause déterminée : en l'occurrence la peste. Par endroit, l'habitude s'en est conservée ou a été reprise »[1].
-Le système statistique français s'est construit sur plusieurs siècles, grâce notamment aux registres paroissiaux : en 1539, l'édit de Villers-Cotterêts de François Ier rend obligatoire la tenue, dans chaque paroisse, de registres des baptêmes et des sépultures tenus par le curé[2].
-Pourtant, l'histoire de la statistique française des causes de décès ne commence en France qu'en 1891. L'Institut international de statistique demande alors à Jacques Bertillon, chef des Travaux statistiques à la Ville de Paris, de préparer une nouvelle classification internationale des causes de décès. Deux listes ont précédé celle-ci mais n'ont jamais été appliquées[3]. La liste sera révisée neuf fois. Mais la plus grande difficulté provenait de la rédaction trop incertaine des bulletins de décès. La révision de 1948 ouvre une nouvelle étape car elle est entreprise sous les auspices de l'Organisation mondiale de la santé.
-Création du CépiDc
-Depuis 1968, le CépiDc, service de l'Institut national de la santé et de la recherche médicale (INSERM), est chargé d'élaborer annuellement la statistique nationale des causes médicales de décès en collaboration avec l'Institut national de la statistique et des études économiques (INSEE). Cette statistique est établie grâce aux informations présentes sur le certificat et le bulletin de décès.
-Un règlement de la Commission européenne du 5 avril 2011[4] rend obligatoire les statistiques et leur transmission à Eurostat[a].
-Les améliorations dans la classification et la collecte ne suppriment pas la prudence que nécessitent la lecture des données et les comparaisons internationales, ainsi que le précisent des chercheurs de l'Institut national d'études démographiques (INED) dans un article intitulé « On ne meurt qu'une fois… mais de combien de causes ? »[5].
+          <t>Contexte</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Jean-Noël Biraben estime que « c'est vraisemblablement à l'occasion de la grande peste noire de 1348-1350 que, pour la première fois en Europe occidentale, on eut l'idée de dénombrer, dans certaines villes, les décès dus à une cause déterminée : en l'occurrence la peste. Par endroit, l'habitude s'en est conservée ou a été reprise ».
+Le système statistique français s'est construit sur plusieurs siècles, grâce notamment aux registres paroissiaux : en 1539, l'édit de Villers-Cotterêts de François Ier rend obligatoire la tenue, dans chaque paroisse, de registres des baptêmes et des sépultures tenus par le curé.
+Pourtant, l'histoire de la statistique française des causes de décès ne commence en France qu'en 1891. L'Institut international de statistique demande alors à Jacques Bertillon, chef des Travaux statistiques à la Ville de Paris, de préparer une nouvelle classification internationale des causes de décès. Deux listes ont précédé celle-ci mais n'ont jamais été appliquées. La liste sera révisée neuf fois. Mais la plus grande difficulté provenait de la rédaction trop incertaine des bulletins de décès. La révision de 1948 ouvre une nouvelle étape car elle est entreprise sous les auspices de l'Organisation mondiale de la santé.
 </t>
         </is>
       </c>
@@ -531,7 +544,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Centre_d%27%C3%A9pid%C3%A9miologie_sur_les_causes_m%C3%A9dicales_de_d%C3%A9c%C3%A8s</t>
+          <t>Centre_d'épidémiologie_sur_les_causes_médicales_de_décès</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -546,10 +559,51 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
+          <t>Histoire</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Création du CépiDc</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Depuis 1968, le CépiDc, service de l'Institut national de la santé et de la recherche médicale (INSERM), est chargé d'élaborer annuellement la statistique nationale des causes médicales de décès en collaboration avec l'Institut national de la statistique et des études économiques (INSEE). Cette statistique est établie grâce aux informations présentes sur le certificat et le bulletin de décès.
+Un règlement de la Commission européenne du 5 avril 2011 rend obligatoire les statistiques et leur transmission à Eurostat[a].
+Les améliorations dans la classification et la collecte ne suppriment pas la prudence que nécessitent la lecture des données et les comparaisons internationales, ainsi que le précisent des chercheurs de l'Institut national d'études démographiques (INED) dans un article intitulé « On ne meurt qu'une fois… mais de combien de causes ? ».
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Centre_d'épidémiologie_sur_les_causes_médicales_de_décès</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Centre_d%27%C3%A9pid%C3%A9miologie_sur_les_causes_m%C3%A9dicales_de_d%C3%A9c%C3%A8s</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
           <t>Missions</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Le CépiDc produit annuellement la statistique des causes médicales de décès en France. Il diffuse les données épidémiologiques de mortalité et alimente le Système national des données de santé (SNDS) avec des données de la Base de données sur les Causes Médicales de Décès (BCMD) ; il facilite, aux équipes de recherche, l'accès aux données de ce dernier[b].
 Le CépiDc réalise des études et des recherches épidémiologiques sur les causes médicales de décès.
@@ -559,33 +613,35 @@
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Centre_d%27%C3%A9pid%C3%A9miologie_sur_les_causes_m%C3%A9dicales_de_d%C3%A9c%C3%A8s</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Centre_d'épidémiologie_sur_les_causes_médicales_de_décès</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
         <is>
           <t>Portail:Médecine/Articles liés</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="D6" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Centre_d%27%C3%A9pid%C3%A9miologie_sur_les_causes_m%C3%A9dicales_de_d%C3%A9c%C3%A8s</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>Organisation et méthodes</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les trois étapes du travail sont celles de la collecte, de la classification et de l'analyse[6]. L'article L. 2223-42 du Code général des collectivités territoriales[7] précise que le certificat médical attestant le décès, établi par un médecin, précise la ou les causes de décès, aux fins de transmission à l'Institut national de la santé et de la recherche médicale. Il existe deux possibilités de déclaration : la certification électronique des décès, la certification papier.
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les trois étapes du travail sont celles de la collecte, de la classification et de l'analyse. L'article L. 2223-42 du Code général des collectivités territoriales précise que le certificat médical attestant le décès, établi par un médecin, précise la ou les causes de décès, aux fins de transmission à l'Institut national de la santé et de la recherche médicale. Il existe deux possibilités de déclaration : la certification électronique des décès, la certification papier.
 La codification des causes de décès par des codeurs-nosologistes s'appuie sur la Classification internationale des maladies (CIM) de l'Organisation Mondiale de la Santé (OMS), ce qui permet une comparaison internationale des données de mortalité.
 Il est possible de consulter les données de mortalité sur le site officiel : effectifs de décès, taux de mortalité bruts et standardisés, par département, région, et grande ville depuis 1979 ; données plus spécifiques sur des regroupements de maladies, zones géographiques et lieux de décès.
 Le CépiDc est situé à l'hôpital du Kremlin-Bicêtre (Val-de-Marne).
@@ -593,31 +649,33 @@
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Centre_d%27%C3%A9pid%C3%A9miologie_sur_les_causes_m%C3%A9dicales_de_d%C3%A9c%C3%A8s</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Centre_d'épidémiologie_sur_les_causes_médicales_de_décès</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
         <is>
           <t>Portail:Médecine/Articles liés</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="D7" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Centre_d%27%C3%A9pid%C3%A9miologie_sur_les_causes_m%C3%A9dicales_de_d%C3%A9c%C3%A8s</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>Publications</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>Les publications scientifiques sont listées et consultables sur le site officiel.
 Le CépiDc publie lui-même ou contribue et participe à des publications dont :
